--- a/docs/Budget.xlsx
+++ b/docs/Budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob\Dropbox\Pics\DEVART forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\devart-template\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Cost</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Samsung 40-ince 1080p HDTV</t>
+  </si>
+  <si>
+    <t>Honorarium</t>
+  </si>
+  <si>
+    <t>20% of total</t>
+  </si>
+  <si>
+    <t>(FX Rate)</t>
   </si>
 </sst>
 </file>
@@ -119,7 +128,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -167,7 +176,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -452,10 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E27"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A2" sqref="A2:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -537,7 +549,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E20" si="1">(C5+D5)*B5</f>
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -564,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -575,7 +587,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -780,31 +792,61 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="E25" s="2" t="s">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="E26" s="1">
+        <f>0.2*25000*E31</f>
+        <v>8263.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="1">
-        <f>SUM(E3:E23)</f>
-        <v>30797</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="E29" s="1">
+        <f>SUM(E3:E26)</f>
+        <v>37460.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="4">
-        <f>E26/1.6527</f>
-        <v>18634.355902462637</v>
+      <c r="E30" s="4">
+        <f>E29/E31</f>
+        <v>22666.243117323167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>1.6527000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>